--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/28/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/28/FD_Curve.xlsx
@@ -488,1077 +488,1077 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>3.42934</v>
+        <v>3.40335</v>
       </c>
       <c r="C5" t="n">
-        <v>3429.34</v>
+        <v>3403.35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.124006</v>
+        <v>0.12397</v>
       </c>
       <c r="B6" t="n">
-        <v>4.399850000000001</v>
+        <v>3.64982</v>
       </c>
       <c r="C6" t="n">
-        <v>4399.85</v>
+        <v>3649.82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155041</v>
+        <v>0.154946</v>
       </c>
       <c r="B7" t="n">
-        <v>5.63424</v>
+        <v>3.76132</v>
       </c>
       <c r="C7" t="n">
-        <v>5634.24</v>
+        <v>3761.32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186012</v>
+        <v>0.185922</v>
       </c>
       <c r="B8" t="n">
-        <v>6.667590000000001</v>
+        <v>3.83169</v>
       </c>
       <c r="C8" t="n">
-        <v>6667.59</v>
+        <v>3831.69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216989</v>
+        <v>0.216899</v>
       </c>
       <c r="B9" t="n">
-        <v>7.86267</v>
+        <v>3.88181</v>
       </c>
       <c r="C9" t="n">
-        <v>7862.67</v>
+        <v>3881.81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247923</v>
+        <v>0.247875</v>
       </c>
       <c r="B10" t="n">
-        <v>8.920579999999999</v>
+        <v>3.93469</v>
       </c>
       <c r="C10" t="n">
-        <v>8920.58</v>
+        <v>3934.69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278848</v>
+        <v>0.278803</v>
       </c>
       <c r="B11" t="n">
-        <v>10.0216</v>
+        <v>3.9824</v>
       </c>
       <c r="C11" t="n">
-        <v>10021.6</v>
+        <v>3982.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309783</v>
+        <v>0.309728</v>
       </c>
       <c r="B12" t="n">
-        <v>11.1643</v>
+        <v>4.02477</v>
       </c>
       <c r="C12" t="n">
-        <v>11164.3</v>
+        <v>4024.77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340708</v>
+        <v>0.340653</v>
       </c>
       <c r="B13" t="n">
-        <v>11.5943</v>
+        <v>4.06481</v>
       </c>
       <c r="C13" t="n">
-        <v>11594.3</v>
+        <v>4064.81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371628</v>
+        <v>0.371578</v>
       </c>
       <c r="B14" t="n">
-        <v>11.8599</v>
+        <v>4.102810000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>11859.9</v>
+        <v>4102.81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402553</v>
+        <v>0.402503</v>
       </c>
       <c r="B15" t="n">
-        <v>11.8897</v>
+        <v>4.1389</v>
       </c>
       <c r="C15" t="n">
-        <v>11889.7</v>
+        <v>4138.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433478</v>
+        <v>0.433428</v>
       </c>
       <c r="B16" t="n">
-        <v>11.862</v>
+        <v>4.17417</v>
       </c>
       <c r="C16" t="n">
-        <v>11862</v>
+        <v>4174.17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464403</v>
+        <v>0.464349</v>
       </c>
       <c r="B17" t="n">
-        <v>11.8446</v>
+        <v>4.20767</v>
       </c>
       <c r="C17" t="n">
-        <v>11844.6</v>
+        <v>4207.67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495328</v>
+        <v>0.495274</v>
       </c>
       <c r="B18" t="n">
-        <v>11.827</v>
+        <v>4.23995</v>
       </c>
       <c r="C18" t="n">
-        <v>11827</v>
+        <v>4239.95</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526253</v>
+        <v>0.526199</v>
       </c>
       <c r="B19" t="n">
-        <v>11.805</v>
+        <v>4.27124</v>
       </c>
       <c r="C19" t="n">
-        <v>11805</v>
+        <v>4271.24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557178</v>
+        <v>0.557124</v>
       </c>
       <c r="B20" t="n">
-        <v>11.7778</v>
+        <v>4.30141</v>
       </c>
       <c r="C20" t="n">
-        <v>11777.8</v>
+        <v>4301.41</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588103</v>
+        <v>0.588049</v>
       </c>
       <c r="B21" t="n">
-        <v>11.7452</v>
+        <v>4.33063</v>
       </c>
       <c r="C21" t="n">
-        <v>11745.2</v>
+        <v>4330.63</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6191449999999999</v>
+        <v>0.6190909999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>11.7075</v>
+        <v>4.35919</v>
       </c>
       <c r="C22" t="n">
-        <v>11707.5</v>
+        <v>4359.19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650318</v>
+        <v>0.650268</v>
       </c>
       <c r="B23" t="n">
-        <v>11.6654</v>
+        <v>4.3871</v>
       </c>
       <c r="C23" t="n">
-        <v>11665.4</v>
+        <v>4387.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681495</v>
+        <v>0.68144</v>
       </c>
       <c r="B24" t="n">
-        <v>11.6238</v>
+        <v>4.414479999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>11623.8</v>
+        <v>4414.48</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.7126670000000001</v>
+        <v>0.7126130000000001</v>
       </c>
       <c r="B25" t="n">
-        <v>11.5845</v>
+        <v>4.44099</v>
       </c>
       <c r="C25" t="n">
-        <v>11584.5</v>
+        <v>4440.99</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7438399999999999</v>
+        <v>0.74379</v>
       </c>
       <c r="B26" t="n">
-        <v>11.5475</v>
+        <v>4.46705</v>
       </c>
       <c r="C26" t="n">
-        <v>11547.5</v>
+        <v>4467.05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775017</v>
+        <v>0.774963</v>
       </c>
       <c r="B27" t="n">
-        <v>11.5126</v>
+        <v>4.49255</v>
       </c>
       <c r="C27" t="n">
-        <v>11512.6</v>
+        <v>4492.55</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.80619</v>
+        <v>0.806135</v>
       </c>
       <c r="B28" t="n">
-        <v>11.476</v>
+        <v>4.51742</v>
       </c>
       <c r="C28" t="n">
-        <v>11476</v>
+        <v>4517.42</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837367</v>
+        <v>0.8373119999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>11.4349</v>
+        <v>4.54186</v>
       </c>
       <c r="C29" t="n">
-        <v>11434.9</v>
+        <v>4541.86</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8685389999999999</v>
+        <v>0.868485</v>
       </c>
       <c r="B30" t="n">
-        <v>11.3915</v>
+        <v>4.56586</v>
       </c>
       <c r="C30" t="n">
-        <v>11391.5</v>
+        <v>4565.86</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899712</v>
+        <v>0.899657</v>
       </c>
       <c r="B31" t="n">
-        <v>11.3436</v>
+        <v>4.58929</v>
       </c>
       <c r="C31" t="n">
-        <v>11343.6</v>
+        <v>4589.29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930889</v>
+        <v>0.9308340000000001</v>
       </c>
       <c r="B32" t="n">
-        <v>11.2933</v>
+        <v>4.61226</v>
       </c>
       <c r="C32" t="n">
-        <v>11293.3</v>
+        <v>4612.26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9620610000000001</v>
+        <v>0.9620069999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>11.2411</v>
+        <v>4.63492</v>
       </c>
       <c r="C33" t="n">
-        <v>11241.1</v>
+        <v>4634.92</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993234</v>
+        <v>0.993184</v>
       </c>
       <c r="B34" t="n">
-        <v>11.188</v>
+        <v>4.65717</v>
       </c>
       <c r="C34" t="n">
-        <v>11188</v>
+        <v>4657.17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02455</v>
+        <v>1.02422</v>
       </c>
       <c r="B35" t="n">
-        <v>11.1339</v>
+        <v>4.67905</v>
       </c>
       <c r="C35" t="n">
-        <v>11133.9</v>
+        <v>4679.05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05593</v>
+        <v>1.05519</v>
       </c>
       <c r="B36" t="n">
-        <v>11.0788</v>
+        <v>4.70053</v>
       </c>
       <c r="C36" t="n">
-        <v>11078.8</v>
+        <v>4700.53</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08731</v>
+        <v>1.08616</v>
       </c>
       <c r="B37" t="n">
-        <v>11.0227</v>
+        <v>4.72166</v>
       </c>
       <c r="C37" t="n">
-        <v>11022.7</v>
+        <v>4721.66</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11869</v>
+        <v>1.11712</v>
       </c>
       <c r="B38" t="n">
-        <v>10.965</v>
+        <v>4.7424</v>
       </c>
       <c r="C38" t="n">
-        <v>10965</v>
+        <v>4742.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.15007</v>
+        <v>1.14809</v>
       </c>
       <c r="B39" t="n">
-        <v>10.9054</v>
+        <v>4.76282</v>
       </c>
       <c r="C39" t="n">
-        <v>10905.4</v>
+        <v>4762.82</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18141</v>
+        <v>1.17906</v>
       </c>
       <c r="B40" t="n">
-        <v>10.8435</v>
+        <v>4.78294</v>
       </c>
       <c r="C40" t="n">
-        <v>10843.5</v>
+        <v>4782.94</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21243</v>
+        <v>1.21003</v>
       </c>
       <c r="B41" t="n">
-        <v>10.7791</v>
+        <v>4.802750000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>10779.1</v>
+        <v>4802.75</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24349</v>
+        <v>1.24099</v>
       </c>
       <c r="B42" t="n">
-        <v>10.7126</v>
+        <v>4.82226</v>
       </c>
       <c r="C42" t="n">
-        <v>10712.6</v>
+        <v>4822.26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27444</v>
+        <v>1.27196</v>
       </c>
       <c r="B43" t="n">
-        <v>10.644</v>
+        <v>4.84151</v>
       </c>
       <c r="C43" t="n">
-        <v>10644</v>
+        <v>4841.51</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30546</v>
+        <v>1.30293</v>
       </c>
       <c r="B44" t="n">
-        <v>10.572</v>
+        <v>4.86049</v>
       </c>
       <c r="C44" t="n">
-        <v>10572</v>
+        <v>4860.49</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33649</v>
+        <v>1.3339</v>
       </c>
       <c r="B45" t="n">
-        <v>10.4969</v>
+        <v>4.879180000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>10496.9</v>
+        <v>4879.18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36733</v>
+        <v>1.36487</v>
       </c>
       <c r="B46" t="n">
-        <v>10.4186</v>
+        <v>4.89763</v>
       </c>
       <c r="C46" t="n">
-        <v>10418.6</v>
+        <v>4897.63</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39853</v>
+        <v>1.39583</v>
       </c>
       <c r="B47" t="n">
-        <v>10.336</v>
+        <v>4.91581</v>
       </c>
       <c r="C47" t="n">
-        <v>10336</v>
+        <v>4915.81</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42934</v>
+        <v>1.4268</v>
       </c>
       <c r="B48" t="n">
-        <v>10.2508</v>
+        <v>4.93371</v>
       </c>
       <c r="C48" t="n">
-        <v>10250.8</v>
+        <v>4933.71</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.46052</v>
+        <v>1.45777</v>
       </c>
       <c r="B49" t="n">
-        <v>10.1607</v>
+        <v>4.951390000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>10160.7</v>
+        <v>4951.39</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49145</v>
+        <v>1.48874</v>
       </c>
       <c r="B50" t="n">
-        <v>10.0664</v>
+        <v>4.96883</v>
       </c>
       <c r="C50" t="n">
-        <v>10066.4</v>
+        <v>4968.83</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52243</v>
+        <v>1.51971</v>
       </c>
       <c r="B51" t="n">
-        <v>9.967780000000001</v>
+        <v>4.986050000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>9967.780000000001</v>
+        <v>4986.05</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55353</v>
+        <v>1.55067</v>
       </c>
       <c r="B52" t="n">
-        <v>9.86421</v>
+        <v>5.00305</v>
       </c>
       <c r="C52" t="n">
-        <v>9864.209999999999</v>
+        <v>5003.05</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58437</v>
+        <v>1.58164</v>
       </c>
       <c r="B53" t="n">
-        <v>9.75676</v>
+        <v>5.019880000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>9756.76</v>
+        <v>5019.88</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61552</v>
+        <v>1.61261</v>
       </c>
       <c r="B54" t="n">
-        <v>9.643330000000001</v>
+        <v>5.03647</v>
       </c>
       <c r="C54" t="n">
-        <v>9643.33</v>
+        <v>5036.47</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64632</v>
+        <v>1.64358</v>
       </c>
       <c r="B55" t="n">
-        <v>9.52725</v>
+        <v>5.05288</v>
       </c>
       <c r="C55" t="n">
-        <v>9527.25</v>
+        <v>5052.88</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67759</v>
+        <v>1.67455</v>
       </c>
       <c r="B56" t="n">
-        <v>9.40418</v>
+        <v>5.06912</v>
       </c>
       <c r="C56" t="n">
-        <v>9404.18</v>
+        <v>5069.12</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70832</v>
+        <v>1.70551</v>
       </c>
       <c r="B57" t="n">
-        <v>9.279219999999999</v>
+        <v>5.08517</v>
       </c>
       <c r="C57" t="n">
-        <v>9279.219999999999</v>
+        <v>5085.17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73953</v>
+        <v>1.73648</v>
       </c>
       <c r="B58" t="n">
-        <v>9.147969999999999</v>
+        <v>5.100989999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>9147.969999999999</v>
+        <v>5100.99</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.77035</v>
+        <v>1.76745</v>
       </c>
       <c r="B59" t="n">
-        <v>9.014799999999999</v>
+        <v>5.11661</v>
       </c>
       <c r="C59" t="n">
-        <v>9014.799999999999</v>
+        <v>5116.61</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80149</v>
+        <v>1.79841</v>
       </c>
       <c r="B60" t="n">
-        <v>8.877190000000001</v>
+        <v>5.13204</v>
       </c>
       <c r="C60" t="n">
-        <v>8877.190000000001</v>
+        <v>5132.04</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83243</v>
+        <v>1.82938</v>
       </c>
       <c r="B61" t="n">
-        <v>8.73784</v>
+        <v>5.1473</v>
       </c>
       <c r="C61" t="n">
-        <v>8737.84</v>
+        <v>5147.3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86337</v>
+        <v>1.86035</v>
       </c>
       <c r="B62" t="n">
-        <v>8.596120000000001</v>
+        <v>5.162430000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>8596.120000000001</v>
+        <v>5162.43</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89455</v>
+        <v>1.89132</v>
       </c>
       <c r="B63" t="n">
-        <v>8.45083</v>
+        <v>5.1774</v>
       </c>
       <c r="C63" t="n">
-        <v>8450.83</v>
+        <v>5177.4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92506</v>
+        <v>1.92229</v>
       </c>
       <c r="B64" t="n">
-        <v>8.30796</v>
+        <v>5.192220000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>8307.959999999999</v>
+        <v>5192.22</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95654</v>
+        <v>1.95325</v>
       </c>
       <c r="B65" t="n">
-        <v>8.15945</v>
+        <v>5.20688</v>
       </c>
       <c r="C65" t="n">
-        <v>8159.45</v>
+        <v>5206.88</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98736</v>
+        <v>1.98422</v>
       </c>
       <c r="B66" t="n">
-        <v>8.01375</v>
+        <v>5.22137</v>
       </c>
       <c r="C66" t="n">
-        <v>8013.75</v>
+        <v>5221.37</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01825</v>
+        <v>2.01514</v>
       </c>
       <c r="B67" t="n">
-        <v>7.86845</v>
+        <v>5.235729999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>7868.45</v>
+        <v>5235.73</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04988</v>
+        <v>2.04569</v>
       </c>
       <c r="B68" t="n">
-        <v>7.721430000000001</v>
+        <v>5.24991</v>
       </c>
       <c r="C68" t="n">
-        <v>7721.43</v>
+        <v>5249.91</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.08029</v>
+        <v>2.07625</v>
       </c>
       <c r="B69" t="n">
-        <v>7.57761</v>
+        <v>5.26399</v>
       </c>
       <c r="C69" t="n">
-        <v>7577.61</v>
+        <v>5263.99</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11139</v>
+        <v>2.10681</v>
       </c>
       <c r="B70" t="n">
-        <v>7.43337</v>
+        <v>5.27787</v>
       </c>
       <c r="C70" t="n">
-        <v>7433.37</v>
+        <v>5277.87</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14276</v>
+        <v>2.13736</v>
       </c>
       <c r="B71" t="n">
-        <v>7.289680000000001</v>
+        <v>5.29162</v>
       </c>
       <c r="C71" t="n">
-        <v>7289.68</v>
+        <v>5291.62</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17316</v>
+        <v>2.16791</v>
       </c>
       <c r="B72" t="n">
-        <v>7.15067</v>
+        <v>5.30521</v>
       </c>
       <c r="C72" t="n">
-        <v>7150.67</v>
+        <v>5305.21</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20438</v>
+        <v>2.19847</v>
       </c>
       <c r="B73" t="n">
-        <v>7.01321</v>
+        <v>5.318680000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>7013.21</v>
+        <v>5318.68</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.2351</v>
+        <v>2.22902</v>
       </c>
       <c r="B74" t="n">
-        <v>6.87739</v>
+        <v>5.33203</v>
       </c>
       <c r="C74" t="n">
-        <v>6877.39</v>
+        <v>5332.03</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26582</v>
+        <v>2.25958</v>
       </c>
       <c r="B75" t="n">
-        <v>6.74844</v>
+        <v>5.345260000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>6748.44</v>
+        <v>5345.26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29677</v>
+        <v>2.29013</v>
       </c>
       <c r="B76" t="n">
-        <v>6.62562</v>
+        <v>5.35837</v>
       </c>
       <c r="C76" t="n">
-        <v>6625.62</v>
+        <v>5358.37</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32798</v>
+        <v>2.32069</v>
       </c>
       <c r="B77" t="n">
-        <v>6.50287</v>
+        <v>5.37134</v>
       </c>
       <c r="C77" t="n">
-        <v>6502.87</v>
+        <v>5371.34</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35921</v>
+        <v>2.35124</v>
       </c>
       <c r="B78" t="n">
-        <v>6.38544</v>
+        <v>5.384189999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>6385.44</v>
+        <v>5384.19</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.39072</v>
+        <v>2.3818</v>
       </c>
       <c r="B79" t="n">
-        <v>6.27421</v>
+        <v>5.396920000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>6274.21</v>
+        <v>5396.92</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42167</v>
+        <v>2.41235</v>
       </c>
       <c r="B80" t="n">
-        <v>6.1732</v>
+        <v>5.40954</v>
       </c>
       <c r="C80" t="n">
-        <v>6173.2</v>
+        <v>5409.54</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45153</v>
+        <v>2.4438</v>
       </c>
       <c r="B81" t="n">
-        <v>6.08722</v>
+        <v>5.42239</v>
       </c>
       <c r="C81" t="n">
-        <v>6087.22</v>
+        <v>5422.39</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48417</v>
+        <v>2.47537</v>
       </c>
       <c r="B82" t="n">
-        <v>6.02291</v>
+        <v>5.435140000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>6022.91</v>
+        <v>5435.14</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51745</v>
+        <v>2.50694</v>
       </c>
       <c r="B83" t="n">
-        <v>5.97304</v>
+        <v>5.4478</v>
       </c>
       <c r="C83" t="n">
-        <v>5973.04</v>
+        <v>5447.8</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54959</v>
+        <v>2.53852</v>
       </c>
       <c r="B84" t="n">
-        <v>5.93117</v>
+        <v>5.46033</v>
       </c>
       <c r="C84" t="n">
-        <v>5931.17</v>
+        <v>5460.33</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.58031</v>
+        <v>2.57009</v>
       </c>
       <c r="B85" t="n">
-        <v>5.89038</v>
+        <v>5.47276</v>
       </c>
       <c r="C85" t="n">
-        <v>5890.38</v>
+        <v>5472.76</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.61102</v>
+        <v>2.60166</v>
       </c>
       <c r="B86" t="n">
-        <v>5.85364</v>
+        <v>5.48509</v>
       </c>
       <c r="C86" t="n">
-        <v>5853.64</v>
+        <v>5485.09</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.64174</v>
+        <v>2.63324</v>
       </c>
       <c r="B87" t="n">
-        <v>5.816680000000001</v>
+        <v>5.49728</v>
       </c>
       <c r="C87" t="n">
-        <v>5816.68</v>
+        <v>5497.28</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.67247</v>
+        <v>2.66481</v>
       </c>
       <c r="B88" t="n">
-        <v>5.78259</v>
+        <v>5.50935</v>
       </c>
       <c r="C88" t="n">
-        <v>5782.59</v>
+        <v>5509.35</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70319</v>
+        <v>2.69639</v>
       </c>
       <c r="B89" t="n">
-        <v>5.74332</v>
+        <v>5.5213</v>
       </c>
       <c r="C89" t="n">
-        <v>5743.32</v>
+        <v>5521.3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73183</v>
+        <v>2.72796</v>
       </c>
       <c r="B90" t="n">
-        <v>5.70779</v>
+        <v>5.53314</v>
       </c>
       <c r="C90" t="n">
-        <v>5707.79</v>
+        <v>5533.14</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.75999</v>
+        <v>2.75953</v>
       </c>
       <c r="B91" t="n">
-        <v>5.67258</v>
+        <v>5.544890000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>5672.58</v>
+        <v>5544.89</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.78815</v>
+        <v>2.79111</v>
       </c>
       <c r="B92" t="n">
-        <v>5.63618</v>
+        <v>5.55651</v>
       </c>
       <c r="C92" t="n">
-        <v>5636.18</v>
+        <v>5556.51</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.81631</v>
+        <v>2.82268</v>
       </c>
       <c r="B93" t="n">
-        <v>5.605420000000001</v>
+        <v>5.56805</v>
       </c>
       <c r="C93" t="n">
-        <v>5605.42</v>
+        <v>5568.05</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.84809</v>
+        <v>2.85425</v>
       </c>
       <c r="B94" t="n">
-        <v>5.56048</v>
+        <v>5.57949</v>
       </c>
       <c r="C94" t="n">
-        <v>5560.48</v>
+        <v>5579.49</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88329</v>
+        <v>2.88583</v>
       </c>
       <c r="B95" t="n">
-        <v>5.521310000000001</v>
+        <v>5.59083</v>
       </c>
       <c r="C95" t="n">
-        <v>5521.31</v>
+        <v>5590.83</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91849</v>
+        <v>2.9174</v>
       </c>
       <c r="B96" t="n">
-        <v>5.476640000000001</v>
+        <v>5.60205</v>
       </c>
       <c r="C96" t="n">
-        <v>5476.64</v>
+        <v>5602.05</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.95075</v>
+        <v>2.94897</v>
       </c>
       <c r="B97" t="n">
-        <v>5.43325</v>
+        <v>5.61312</v>
       </c>
       <c r="C97" t="n">
-        <v>5433.25</v>
+        <v>5613.12</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98275</v>
+        <v>2.98055</v>
       </c>
       <c r="B98" t="n">
-        <v>5.395300000000001</v>
+        <v>5.6241</v>
       </c>
       <c r="C98" t="n">
-        <v>5395.3</v>
+        <v>5624.1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01475</v>
+        <v>3.01212</v>
       </c>
       <c r="B99" t="n">
-        <v>5.35439</v>
+        <v>5.63499</v>
       </c>
       <c r="C99" t="n">
-        <v>5354.39</v>
+        <v>5634.99</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04675</v>
+        <v>3.04369</v>
       </c>
       <c r="B100" t="n">
-        <v>5.3193</v>
+        <v>5.64578</v>
       </c>
       <c r="C100" t="n">
-        <v>5319.3</v>
+        <v>5645.78</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07875</v>
+        <v>3.07526</v>
       </c>
       <c r="B101" t="n">
-        <v>5.280060000000001</v>
+        <v>5.65649</v>
       </c>
       <c r="C101" t="n">
-        <v>5280.06</v>
+        <v>5656.49</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.11075</v>
+        <v>3.10684</v>
       </c>
       <c r="B102" t="n">
-        <v>5.24636</v>
+        <v>5.66711</v>
       </c>
       <c r="C102" t="n">
-        <v>5246.36</v>
+        <v>5667.11</v>
       </c>
     </row>
   </sheetData>
